--- a/omzit_terminal/ReportTemplate.xlsx
+++ b/omzit_terminal/ReportTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\АСУП\Python\Projects\OmzitTerminal\omzit_terminal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4B6045-7FCE-4CB3-829A-199777E4592D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BAD2D-3B34-4F24-930F-F0CA64142686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет для 1С" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>№</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>№ Т</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Заказ</t>
   </si>
 </sst>
 </file>
@@ -245,40 +251,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="67.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="86.5703125" style="1"/>
+    <col min="1" max="3" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="86.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -294,68 +306,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/omzit_terminal/ReportTemplate.xlsx
+++ b/omzit_terminal/ReportTemplate.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\АСУП\Python\Projects\OmzitTerminal\omzit_terminal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BAD2D-3B34-4F24-930F-F0CA64142686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчет для 1С" sheetId="1" r:id="rId1"/>
-    <sheet name="Отчет для диспетчера" sheetId="2" r:id="rId2"/>
-    <sheet name="Полный отчет" sheetId="3" r:id="rId3"/>
+    <sheet name="Отчет для 1С" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Отчет для диспетчера" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Полный отчет" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Тест" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -29,66 +25,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>№ Операции</t>
-  </si>
-  <si>
-    <t>Операция</t>
-  </si>
-  <si>
-    <t>Исполнители</t>
-  </si>
-  <si>
-    <t>Дата готовности</t>
-  </si>
-  <si>
-    <t>Дата распределения</t>
-  </si>
-  <si>
-    <t>Дата начала</t>
-  </si>
-  <si>
-    <t>Дата окончания</t>
-  </si>
-  <si>
-    <t>Длительность работы</t>
-  </si>
-  <si>
-    <t>Технологическая норма</t>
-  </si>
-  <si>
-    <t>Статус СЗ</t>
-  </si>
-  <si>
-    <t>Мастер</t>
-  </si>
-  <si>
-    <t>Контролер</t>
-  </si>
-  <si>
-    <t>Статус сменного задания</t>
-  </si>
-  <si>
-    <t>№ Т</t>
-  </si>
-  <si>
-    <t>Модель</t>
-  </si>
-  <si>
-    <t>Заказ</t>
+    <t xml:space="preserve">№</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ Операции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Операция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исполнители</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата готовности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус сменного задания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ Т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата распределения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата начала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата окончания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длительность работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технологическая норма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус СЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мастер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контролер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
@@ -107,7 +124,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -115,83 +132,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -244,60 +285,62 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="86.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="86.5703125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="11.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="103.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="86.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="103.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="67.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="33.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="86.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
@@ -305,82 +348,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="84.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="47.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="41.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
@@ -388,18 +435,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>

--- a/omzit_terminal/ReportTemplate.xlsx
+++ b/omzit_terminal/ReportTemplate.xlsx
@@ -5,25 +5,31 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет для 1С" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Отчет для диспетчера" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Полный отчет" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Тест" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Отчет по выполненной норме" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Отчет для 1С'!$A:$H</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Отчет для диспетчера'!$A:$O</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Отчет по выполненной норме'!$A:$B</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Полный отчет'!$A:$AP</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -74,6 +80,132 @@
   </si>
   <si>
     <t xml:space="preserve">Контролер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">previous_shift_task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цех</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель изделия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ожидаемая дата готовности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер заказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заказ и модель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер операции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя операции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя рабочего центра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное имея операции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер рабочего центра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технологическая норма времени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дата/время занесения технологических данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дата/время корректировки технологических данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время планирования в цех</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время планирования РЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО исполнителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время распределения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время начала работ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время вызова мастера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО мастера вызова ОТК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время вызова ОТК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время ответа ОТК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количество вызовов мастера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">статус вызова мастера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фактическая норма времени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО контролёра ответа ОТК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО контролёра решения ОТК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время приёмки ОТК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Факт наличия брака</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время регистрации брака</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО бракоделов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Распределил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лист excel технологического процесса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">путь к связанным чертежам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">имя чертежа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Категория изделия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время возобновления работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новое СЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО Исполнителя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Часы по норме</t>
   </si>
 </sst>
 </file>
@@ -83,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -110,6 +242,27 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -157,17 +310,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -179,7 +352,32 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -293,57 +491,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="86.5703125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="103.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="67.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="33.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="86.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="115.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="66.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A:H"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 Страница &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -354,83 +558,87 @@
   </sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="84.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="47.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="41.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="115.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="69.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="30.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A:O"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 Страница &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -439,21 +647,210 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AP1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="25.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="35.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="18.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="20.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="87.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="39.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="115.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="30.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="40.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="56.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="62.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="33.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="30.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="6" width="73.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="6" width="28.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="26.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="29.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="6" width="25.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="6" width="24.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="6" width="36.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="6" width="29.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="6" width="35.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="6" width="38.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="6" width="26.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="6" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="6" width="26.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="6" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="6" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="6" width="25.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="6" width="47.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="6" width="34.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="6" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="6" width="25.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="6" width="28.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="6" width="37.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="6" width="14.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A:AP"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 Страница &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -462,20 +859,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="44.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A:B"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12 Страница &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/omzit_terminal/ReportTemplate.xlsx
+++ b/omzit_terminal/ReportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет для 1С" sheetId="1" state="visible" r:id="rId3"/>
@@ -15,8 +15,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Отчет для 1С'!$A:$H</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Отчет для диспетчера'!$A:$O</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Отчет по выполненной норме'!$A:$B</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Отчет для диспетчера'!$A:$Q</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Отчет по выполненной норме'!$A:$D</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Полный отчет'!$A:$AP</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -73,6 +73,12 @@
     <t xml:space="preserve">Технологическая норма</t>
   </si>
   <si>
+    <t xml:space="preserve">Количество исполнителей по ТД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расчетная норма</t>
+  </si>
+  <si>
     <t xml:space="preserve">Статус СЗ</t>
   </si>
   <si>
@@ -206,6 +212,12 @@
   </si>
   <si>
     <t xml:space="preserve">Часы по норме</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Табель Цех 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Табель Цех 2</t>
   </si>
 </sst>
 </file>
@@ -315,31 +327,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,7 +505,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -503,7 +515,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="115.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="115.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="66.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.92"/>
@@ -556,10 +568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,17 +581,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="115.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="115.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="69.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="30.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="30.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="39.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="18" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -628,9 +642,15 @@
       <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A:O"/>
+  <autoFilter ref="A:Q"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -665,8 +685,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="22.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="87.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="39.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="115.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="30.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="115.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="30.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="6" width="40.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="56.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="62.06"/>
@@ -678,8 +698,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="29.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="6" width="25.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="6" width="24.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="6" width="36.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="6" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="6" width="36.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="6" width="29.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="6" width="35.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="6" width="38.11"/>
@@ -700,130 +720,130 @@
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -859,32 +879,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="44.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="44.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="25.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="19.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A:B"/>
+  <autoFilter ref="A:D"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
